--- a/storage/assets_common/mau_de_cuong.xlsx
+++ b/storage/assets_common/mau_de_cuong.xlsx
@@ -24,69 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Mã bài học</t>
-  </si>
-  <si>
-    <t>Mã khóa học</t>
-  </si>
-  <si>
-    <t>Điều kiện qua</t>
-  </si>
-  <si>
-    <t>STT đề thi</t>
-  </si>
-  <si>
-    <t>Câu hỏi</t>
-  </si>
-  <si>
-    <t>Đáp án 1</t>
-  </si>
-  <si>
-    <t>Đáp án 2</t>
-  </si>
-  <si>
-    <t>Đáp án 3</t>
-  </si>
-  <si>
-    <t>Đáp án 4</t>
-  </si>
-  <si>
-    <t>Đáp án 5</t>
-  </si>
-  <si>
-    <t>Đáp án 6</t>
-  </si>
-  <si>
-    <t>Đáp án đúng</t>
-  </si>
-  <si>
-    <t>Đáp án</t>
-  </si>
-  <si>
-    <t>Câu hỏi 1</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>ádasd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Stt</t>
+  </si>
+  <si>
+    <t>Tên bài giảng</t>
+  </si>
+  <si>
+    <t>Dự kiến ngày xuất bản</t>
+  </si>
+  <si>
+    <t>Xác định các đại lượng và trạng thái của vật dao động điều hoà</t>
+  </si>
+  <si>
+    <t>Dao động điều hòa</t>
+  </si>
+  <si>
+    <t>Áp dụng công thức độc lập với thời gian</t>
+  </si>
+  <si>
+    <t>Viết phương trình dao động của vật</t>
+  </si>
+  <si>
+    <t>Xác định ly độ của vật sau thời gian ∆t</t>
   </si>
 </sst>
 </file>
@@ -123,8 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,129 +370,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42916</v>
       </c>
     </row>
   </sheetData>
